--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,14 +551,189 @@
           <t>깃들이다</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20221219</t>
-        </is>
+      <c r="D5" t="n">
+        <v>20221219</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>09시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>카드 결제(決濟)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>결재(決裁)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>결제(決濟)</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>그 건물의 높이가 가늠이 안된다</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>가름</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>가늠</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>달걀이나 조개 따위의 겉을 싸고 있는 단단한 물질.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>껍질</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>껍데기</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>바싹 하지 아니하고 느슨하게 하다</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>낮추다</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>늦추다</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>카드 결제(決濟)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>결재(決裁)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>결제(決濟)</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>경각심을 낮춰선/늦춰선 안 된다</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>낮추다</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>늦추다</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>카드 결제(決濟)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>결재(決裁)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>결제(決濟)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20221220</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23시 00분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,14 +726,360 @@
           <t>결제(決濟)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20221220</t>
-        </is>
+      <c r="D12" t="n">
+        <v>20221220</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>23시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>직접 경험하여 새로이 알게 된 사실에 대한 물음을 나타내는 종결 어미</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>던</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>신랑이 어쩜 이렇게 잘 생겼대?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>데</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[든지]의 준말</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>던</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>든</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>그는 잘 있던?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>든</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>던</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>마음이나 행동 따위가 올바르지 못하고 비뚤어지다</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>다르다</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>틀리다</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>약재 따위에 물을 부어 우러나오도록 끓이다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>다리다</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>달이다</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>고무줄을 늘이다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>늘리다</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>늘이다</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>노래를 부르든 춤을 추든, 한 가지는 해야 한다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>던</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>든</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>그는 화가 나서 문을 다치고/닫치고/닫히고 나갔다</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>다치다</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>닫치다</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>물체의 넓이, 부피 따위를 본디 보다 커지게 하다</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>늘이다</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>늘리다</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>사람이 아주 똑똑하대</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>데</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>느린/늘린/늘인 산비탈</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>늘이다</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>느리다</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>주렴을 늘이다</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>늘리다</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>늘이다</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>경각심을 낮춰선/늦춰선 안 된다</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>낮추다</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>늦추다</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20221221</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23시 42분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,14 +1072,381 @@
           <t>늦추다</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>20221221</t>
-        </is>
+      <c r="D26" t="n">
+        <v>20221221</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>23시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>알려지지 않은 사실이 널리 밝혀지다</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>드러내다</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>드러나다</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>병에 걸리다</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>들리다</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>물체의 넓이, 부피 따위를 본디 보다 커지게 하다</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>늘이다</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>늘리다</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>진실은 반드시 드러난다/드러낸다/들어낸다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>드러내다</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>드러나다</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>그는 잘 있던?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>든</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>던</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>10시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>경각심을 낮춰선/늦춰선 안 된다</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>낮추다</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>늦추다</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>11시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>말이나 행동으로 더럽혀 욕되게 함</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>모욕</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>모독</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>11시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>느린/늘린/늘인 산비탈</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>늘이다</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>느리다</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>11시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>[든지]의 준말</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>던</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>든</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>11시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>신랑이 어쩜 이렇게 잘 생겼대?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>데</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>11시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>경각심을 낮춰선/늦춰선 안 된다</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>낮추다</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>늦추다</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>11시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>안쪽으로 가까이 옮기다</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>들이키다</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>11시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>(속되게) 어떤 일이나 사람에게 전직으로 의지하다</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>목메다</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>목매다</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>11시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>사람이 아주 똑똑하대</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>데</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>11시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>사물의 높이나 집단의 규모가 보통의 정도보다 크다</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>두텁다</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>두껍다</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20221223</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>11시 18분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1439,14 +1439,39 @@
           <t>두껍다</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>20221223</t>
-        </is>
+      <c r="D41" t="n">
+        <v>20221223</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>11시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>쟁반에 커피를 바치고/받치고/받히고/밭치고 갔다</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>받히다</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>받치다</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20221227</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23시 32분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1464,14 +1464,164 @@
           <t>받치다</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>20221227</t>
-        </is>
+      <c r="D42" t="n">
+        <v>20221227</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>23시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>투자 손실을 보전(補塡)하였다</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>보전(保全)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>보전(補塡)</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>08시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>버릇, 생각, 태도 따위가 깊이 배다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>박히다</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>박이다</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>08시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>화 따위의 심리적 작용이 강하게 일어나다</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>밭치다</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>받치다</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>08시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>고추 백 근을 시장 상인에게 바쳐/받쳐/받혀/밭쳐도 옷 한 벌 사기 힘들다</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>받치다</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>받히다</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>08시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>전체를 이루는 작은 범위. 또는 전체를 몇 개로 나눈 것의 하나</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>부문</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>부분</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>08시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>쟁반에 커피를 바치고/받치고/받히고/밭치고 갔다</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>받히다</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>받치다</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>20221230</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>08시 15분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1614,14 +1614,264 @@
           <t>받치다</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>20221230</t>
-        </is>
+      <c r="D48" t="n">
+        <v>20221230</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>08시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>손바닥, 발바닥 따위에 굳은살이 생기다</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>배기다</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>박이다</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>00시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>배경 음악이 영화를 잘 바쳐/받쳐/받혀/밭쳐 주었다</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>받히다</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>받치다</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>00시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>사람이 아주 똑똑하대</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>데</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>00시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>잘 보호하고 간수하여 남김</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>보전(保全)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>보존(保存)</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>00시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>어깨를 드러나는/드러내는/들어내는 옷차림</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>드러나다</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>드러내다</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>00시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>부족한 부분을 보태어 채움</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>보전(保全)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>보전(補塡)</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>00시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>술을 바쳤다/받쳤다/받혔다/밭쳤다</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>바치다</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>밭치다</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>00시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>받다(한꺼번에 많은 양의 물품을 사다)의 사동사</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>바치다</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>받히다</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>00시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>쟁반에 커피를 바치고/받치고/받히고/밭치고 갔다</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>받히다</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>받치다</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>00시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>승용차에 바쳐/받쳐/받혀/밭쳐 크게 다쳤다</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㅁ종료</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>받히다</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>20221231</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>01시 08분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1864,14 +1864,589 @@
           <t>받히다</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>20221231</t>
-        </is>
+      <c r="D58" t="n">
+        <v>20221231</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>01시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>논쟁을 벌이다</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>벌리다</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>벌이다</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>06시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>배가 세찬 파도에 부딪쳤다/부딪혔다</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>부딪치다</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>부딪히다</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>06시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>잘 보호하고 간수하여 남김</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>보전(保全)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>보존(保存)</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>06시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>나는 진학 문제로 부모님과 부딪쳤다/부딪혔다</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>부딪히다</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>부딪치다</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>06시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>물이나 술 따위를 액체를 단숨에 마구 마시다</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>들이키다</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>들이켜다</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>06시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>내 마음을 시에 부쳐/붙여 임에게 보냈다</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>붙이다</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>부치다</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>06시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>손바닥, 발바닥 따위에 굳은살이 생기다</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>배기다</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>박이다</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>06시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>어떤 일을 거론하거나 문제 삼지 아니하는 상태에 있게 하다</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>붙이다</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>부치다</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>06시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>버릇, 생각, 태도 따위가 깊이 배다</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>박히다</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>박이다</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>06시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>물체의 넓이, 부피 따위를 본디 보다 커지게 하다</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>늘이다</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>늘리다</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>06시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>마디마디 못이 박인/박힌/배긴 어머니의 손</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>배기다</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>박이다</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>06시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>액체나 빛 따위가 세게 부딪쳐 산산이 흩어지다</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>부수다</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>부서지다</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>06시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>어떤 일을 잘할 수 있도록 뒷받침해주다</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>받히다</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>받치다</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>06시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>조각이 나게 깨뜨리다</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>부서지다</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>부수다</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>07시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>매무시를 가다듬다</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>매무새</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>매무시</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>07시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>온전하게 보호하여 유지함</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>보존(保存)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>보전(保全)</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>07시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>중대한 임무를 띠다</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>띄다</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>띠다</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>07시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>이불이 두껍다</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>두텁다</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>두껍다</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>07시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>먹은 것이 자꾸 바쳤다/받쳤다/받혔다/밭쳤다</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>받히다</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>받치다</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>07시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>생태계 보전(保全)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>보존(保存)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>보전(保全)</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>가거나 오거나 하는 동작의 목적을 나타내는 연결 어미</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>려</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>러</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>07시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>신에게 제물을 바쳤다/받쳤다/받혔다/밭쳤다</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>밭치다</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>바치다</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>07시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>죄 없는 사람을 목매면/목메면 안된다</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>목메다</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>목매다</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>20230103</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>07시 23분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2439,14 +2439,564 @@
           <t>목매다</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>20230103</t>
-        </is>
+      <c r="D81" t="n">
+        <v>20230103</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>07시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>잘 보호하고 간수하여 남김</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>보전(保全)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>보존(保存)</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>07시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>어떤 일을 잘할 수 있도록 뒷받침해주다</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>받히다</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>받치다</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>07시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>매무시를 가다듬다</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>매무새</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>매무시</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>07시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>가거나 오거나 하는 동작의 목적을 나타내는 연결 어미</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>려</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>러</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>07시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>물건, 색체, 용무, 성질, 감정 등을 지나다</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>띄다</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>띠다</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>07시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>배경 음악이 영화를 잘 바쳐/받쳐/받혀/밭쳐 주었다</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>바치다</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>받치다</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>07시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>고추 백 근을 시장 상인에게 바쳐/받쳐/받혀/밭쳐도 옷 한 벌 사기 힘들다</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>밭치다</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>받히다</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>07시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>무엇을 위하여 모든 것을 아낌 없이 내놓거나 쓰다</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>받치다</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>바치다</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>07시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>쟁반에 커피를 바치고/받치고/받히고/밭치고 갔다</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>받히다</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>받치다</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>07시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>고추 백 근을 시장 상인에게 바쳐/받쳐/받혀/밭쳐도 옷 한 벌 사기 힘들다</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>받치다</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>받히다</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>07시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>매무시를 가다듬다</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>매무새</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>매무시</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>07시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>잘 보호하고 간수하여 남김</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>보전(保全)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>보존(保存)</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>07시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>옷을 입을 때 매고 여미는 따위의 뒷단속</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>매무새</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>매무시</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>구름이 걷히자 산봉우리가 드러났다/드러냈다/들어냈다\</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>드러내다</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>드러나다</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>07시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>매무시를 가다듬다</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>매무새</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>매무시</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>07시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>옷을 입을 때 매고 여미는 따위의 뒷단속</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>매무새</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>매무시</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>07시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>두께가 보통의 정도보다 크다</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>두텁다</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>두껍다</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>가거나 오거나 하는 동작의 목적을 나타내는 연결 어미</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>려</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>러</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>흥정을 부친다/붙인다</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>부치다</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>붙이다</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>07시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>죽거나 죽이려고 끈이나 줄 같은 것으로 높은 곳에 목을 걸어 매달다</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>목메다</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>목매다</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>07시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>[-든지]의 준말</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>던</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>든</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>07시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>온전하게 보호하여 유지함</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>보존(保存)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>보전(保全)</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>20230104</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>08시 01분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2989,14 +2989,564 @@
           <t>보전(保全)</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>20230104</t>
-        </is>
+      <c r="D103" t="n">
+        <v>20230104</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>08시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>분을 삭이다</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>삭히다</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>삭이다</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>10시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>옷을 입을 때 매고 여미는 따위의 뒷단속</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>매무새</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>매무시</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>10시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>일을 적당히 하고 눈을 속여 넘기는 모양</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>알음알음</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>아름아름</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>10시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>고집을 세우다</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>새우다</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>세우다</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>10시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>체중이 붇다</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>불다</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>붇다</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>10시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>그는 한구석에 시름없이 서 있었다</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>실없이</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>시름없이</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>10시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>그는 어머니를 생각하며 시름없이 허공만 바라보고 있다</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>실없이</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>시름없이</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>10시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>아무 생각이 없이</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>실없이</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>시름없이</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>10시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>은행에 적금을 붓다</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>붇다</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>붓다</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>10시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>살가죽이나 어떤 기관이 부풀어 오르다</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>붇다</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>붓다</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>10시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>그것은 내 잘못이 아니오</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>아니요</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>아니오</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>10시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>살져서/살쪄서 바지가 작다</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>살지다</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>살찌다</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>10시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>불입금, 이자, 곗돈 따위를 일정한 기간마다 내다</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>붇다</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>붓다</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>10시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>분량이나 수효가 많아지다</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>불다</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>붇다</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>10시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>잘 보호하고 간수하여 남김</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>보전(保全)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>보존(保存)</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>10시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>오래되서 불은 국수는 맛이 없다</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>불다</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>붇다</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>10시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>아무 생각이 없이</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>실없이</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>시름없이</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>10시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>사고나 탈</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>사단</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>사달</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>10시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>일을 적당히 하고 눈을 속여 넘기는 모양</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>알음알음</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>아름아름</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>10시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>오래되서 불은 국수는 맛이 없다</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>붓다</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>붇다</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>10시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>체중이 붇다</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>붓다</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>붇다</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>10시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>분량이나 수효가 많아지다</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>불다</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>붇다</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>20230107</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>10시 37분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,14 +3539,114 @@
           <t>붇다</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>20230107</t>
-        </is>
+      <c r="D125" t="n">
+        <v>20230107</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>10시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>아는 일</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>알음</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>앎</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>10시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>잇따르다</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>잇따르다</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>잇달다</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>10시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>(일부 명사 뒤에 붙어) '그대로', 전부의 뜻을 더하는 접미사</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>채</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>째</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>10시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>조용히 참고 견디는 모양</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>지긋이</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>지그시</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>20230108</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>10시 23분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3639,14 +3639,339 @@
           <t>지그시</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>20230108</t>
-        </is>
+      <c r="D129" t="n">
+        <v>20230108</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>10시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>사무실을 임차하였다</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>임대</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>임차</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>07시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>자동차 충돌</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>추돌</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>충돌</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>07시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>슬며시 힘을 주는 모양</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>지긋이</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>지그시</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>07시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>뒤죽박죽이 되어 어지럽고 질서가 없음</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>혼동</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>혼란(混亂)</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>07시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>한때는 사람들이 그를 영웅으로 치켜세운/치켜올린 적도 있었다</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>치켜올리다</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>치켜세우다</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>07시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>보도 차량이 잇달았다/잇따랐다</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>잇달다</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>잇따르다</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>07시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>햇빛을 가리다</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>햇살</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>햇빛</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>07시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>노루를 산 채로 잡았다</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>체</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>채</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>07시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>따사로운 햇볕</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>햇살</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>햇볕</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>07시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>반반하게 하다</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>피다</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>펴다</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>07시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>사회 혼란</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>혼란(昏亂)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>혼란(混亂)</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>상하고 찌들어 비위에 거슬릴 정도로 냄새가 고리다</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>쾌쾌하다</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>쾨쾨하다</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>07시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>임대 가격이 싸다</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>임차</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>임대</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>20230111</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>07시 51분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3964,14 +3964,39 @@
           <t>임대</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>20230111</t>
-        </is>
+      <c r="D142" t="n">
+        <v>20230111</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
           <t>07시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>잇따르다</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>잇따르다</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>잇달다</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>20230121</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>22시 17분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_57항.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3989,14 +3989,189 @@
           <t>잇달다</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>20230121</t>
-        </is>
+      <c r="D143" t="n">
+        <v>20230121</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>22시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>실제보다 과장되게 칭찬하다 = 추어주다, 추켜올리다, 치켜올리다</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>추어주다</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>추어올리다</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>15시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>일을 미루다</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>젖히다</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>제치다</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>15시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>형편이 나아지다</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>펴다</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>피다</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>15시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>보도 차량이 잇달았다/잇따랐다</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>잇달다</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>잇따르다</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>15시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>마음이나 정신 따위가 어둡고 어지러움</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>혼란(混亂)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>혼란(昏亂)</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>15시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>자동차 충돌</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>추돌</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>충돌</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>15시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>용돈을 푼푼히 주다</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>푼푼이</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>푼푼히</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>20230126</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>15시 20분</t>
         </is>
       </c>
     </row>
